--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="427">
   <si>
     <t>Path</t>
   </si>
@@ -344,10 +344,7 @@
 </t>
   </si>
   <si>
-    <t>Modifier codes used to supplement information or adjust care decriptions for procedures</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Modifier codes used either to supplement information, or to adjust procedure care descriptions</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -2582,7 +2579,7 @@
         <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2662,11 +2659,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2688,16 +2685,16 @@
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2746,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2798,19 +2795,19 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2847,10 +2844,10 @@
         <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>40</v>
@@ -2859,7 +2856,7 @@
         <v>99</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2874,21 +2871,21 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2914,10 +2911,10 @@
         <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2968,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2986,7 +2983,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2997,11 +2994,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3023,13 +3020,13 @@
         <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3070,7 +3067,7 @@
         <v>98</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
@@ -3079,7 +3076,7 @@
         <v>99</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3097,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3134,16 +3131,16 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3168,31 +3165,31 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3210,7 +3207,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3244,19 +3241,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3281,29 +3278,29 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3321,18 +3318,18 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3358,16 +3355,16 @@
         <v>65</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3380,43 +3377,43 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3434,18 +3431,18 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3471,13 +3468,13 @@
         <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3491,43 +3488,43 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3545,18 +3542,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3579,13 +3576,13 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3636,7 +3633,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3654,18 +3651,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3688,16 +3685,16 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3747,7 +3744,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3765,21 +3762,21 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3801,19 +3798,19 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3862,7 +3859,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3877,21 +3874,21 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3917,10 +3914,10 @@
         <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3971,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3989,7 +3986,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4000,11 +3997,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4026,13 +4023,13 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4073,7 +4070,7 @@
         <v>98</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -4082,7 +4079,7 @@
         <v>99</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4100,7 +4097,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4137,16 +4134,16 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4156,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>40</v>
@@ -4171,31 +4168,31 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4213,7 +4210,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4247,19 +4244,19 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4269,29 +4266,29 @@
         <v>40</v>
       </c>
       <c r="R25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4308,7 +4305,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4326,18 +4323,18 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4363,16 +4360,16 @@
         <v>65</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4385,43 +4382,43 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4439,18 +4436,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4476,13 +4473,13 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4496,43 +4493,43 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4550,18 +4547,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4584,13 +4581,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4641,7 +4638,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4659,18 +4656,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4693,16 +4690,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4752,7 +4749,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4770,18 +4767,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4804,13 +4801,13 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4861,7 +4858,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4876,10 +4873,10 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4916,13 +4913,13 @@
         <v>65</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4972,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4987,10 +4984,10 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5001,11 +4998,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5024,13 +5021,13 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5081,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5096,10 +5093,10 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5110,11 +5107,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5133,16 +5130,16 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5192,7 +5189,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5207,10 +5204,10 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5247,13 +5244,13 @@
         <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5279,14 +5276,14 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>49</v>
@@ -5318,13 +5315,13 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5332,11 +5329,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5355,16 +5352,16 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5390,14 +5387,14 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5429,10 +5426,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5443,7 +5440,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5466,13 +5463,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5499,14 +5496,14 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5541,10 +5538,10 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5552,11 +5549,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5575,17 +5572,17 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5610,14 +5607,14 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5634,7 +5631,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5649,25 +5646,25 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5686,13 +5683,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5743,7 +5740,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>49</v>
@@ -5758,21 +5755,21 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5795,16 +5792,16 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5854,7 +5851,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5869,21 +5866,21 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5906,16 +5903,16 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5965,7 +5962,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5980,21 +5977,21 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6017,13 +6014,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6074,7 +6071,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6092,10 +6089,10 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -6103,7 +6100,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6126,13 +6123,13 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6183,7 +6180,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6201,10 +6198,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6212,7 +6209,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6235,13 +6232,13 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6292,7 +6289,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6307,10 +6304,10 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6321,7 +6318,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6347,10 +6344,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6401,7 +6398,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6419,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6430,11 +6427,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6456,13 +6453,13 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6512,7 +6509,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6530,7 +6527,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6541,11 +6538,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6567,16 +6564,16 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M46" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6625,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6654,7 +6651,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6677,17 +6674,17 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6712,14 +6709,14 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6736,7 +6733,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6751,21 +6748,21 @@
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6788,17 +6785,17 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6847,7 +6844,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>49</v>
@@ -6862,21 +6859,21 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6899,17 +6896,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6958,7 +6955,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6976,7 +6973,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6987,7 +6984,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7010,17 +7007,17 @@
         <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7069,7 +7066,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7087,10 +7084,10 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7098,7 +7095,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7121,16 +7118,16 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7156,14 +7153,14 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7195,13 +7192,13 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7209,7 +7206,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7232,16 +7229,16 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7291,7 +7288,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7306,13 +7303,13 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7320,7 +7317,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7343,16 +7340,16 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7378,14 +7375,14 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7402,7 +7399,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7420,18 +7417,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7454,16 +7451,16 @@
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7489,14 +7486,14 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7513,7 +7510,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7531,7 +7528,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7542,7 +7539,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7565,16 +7562,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7624,7 +7621,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7642,7 +7639,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7653,7 +7650,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7676,16 +7673,16 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7711,14 +7708,14 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7753,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7764,7 +7761,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7787,17 +7784,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7846,7 +7843,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7864,7 +7861,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7898,13 +7895,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7931,14 +7928,14 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7955,7 +7952,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7973,7 +7970,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7984,7 +7981,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8007,13 +8004,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8064,7 +8061,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8079,21 +8076,21 @@
         <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8116,13 +8113,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8173,7 +8170,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8191,7 +8188,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8202,7 +8199,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8228,10 +8225,10 @@
         <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8282,7 +8279,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8300,7 +8297,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8311,11 +8308,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8337,13 +8334,13 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8393,7 +8390,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8411,7 +8408,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8422,11 +8419,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8448,16 +8445,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8506,7 +8503,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8535,7 +8532,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8558,13 +8555,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8594,11 +8591,11 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8615,7 +8612,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8633,7 +8630,7 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8644,7 +8641,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8667,13 +8664,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8724,7 +8721,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>49</v>
@@ -8742,7 +8739,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8753,7 +8750,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8776,19 +8773,19 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8837,7 +8834,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8855,7 +8852,7 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8866,7 +8863,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8889,16 +8886,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8924,14 +8921,14 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8948,7 +8945,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8966,7 +8963,7 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -1579,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1655,90 +1658,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7427 +1797,7427 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a procedure</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a procedure</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1755,44 +1755,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="89.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.48828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="142.5625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="142.56640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="105.15625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="105.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,244 +271,248 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Procedure.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Procedure.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Procedure.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Procedure.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Procedure.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Procedure.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>procedureModifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-modifier}
+</t>
+  </si>
+  <si>
+    <t>Modifier codes used either to supplement information, or to adjust procedure care descriptions</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this procedure by the performer or other systems which remain constant as the resource is updated and is propagated from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and Person resource instances might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Procedure.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Procedure.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Procedure.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Procedure.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Procedure.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Procedure.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>procedureModifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-modifier}
-</t>
-  </si>
-  <si>
-    <t>Modifier codes used either to supplement information, or to adjust procedure care descriptions</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this procedure by the performer or other systems which remain constant as the resource is updated and is propagated from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and Person resource instances might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3156,13 +3160,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3213,7 +3217,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3231,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3242,7 +3246,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3268,10 +3272,10 @@
         <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>143</v>
@@ -3315,7 +3319,7 @@
         <v>132</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>74</v>
@@ -3324,7 +3328,7 @@
         <v>133</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3342,7 +3346,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3353,7 +3357,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3379,16 +3383,16 @@
         <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3413,13 +3417,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3437,7 +3441,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3455,7 +3459,7 @@
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3466,7 +3470,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3489,19 +3493,19 @@
         <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3526,11 +3530,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3548,7 +3552,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3566,18 +3570,18 @@
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3603,16 +3607,16 @@
         <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3625,7 +3629,7 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3661,7 +3665,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3679,18 +3683,18 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3713,16 +3717,16 @@
         <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3736,7 +3740,7 @@
         <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>74</v>
@@ -3772,7 +3776,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3790,18 +3794,18 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3824,13 +3828,13 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3881,7 +3885,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3899,18 +3903,18 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3933,16 +3937,16 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3992,7 +3996,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4010,13 +4014,13 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -4024,7 +4028,7 @@
         <v>146</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -4159,13 +4163,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4216,7 +4220,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4234,7 +4238,7 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4245,7 +4249,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4271,10 +4275,10 @@
         <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>143</v>
@@ -4318,7 +4322,7 @@
         <v>132</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
@@ -4327,7 +4331,7 @@
         <v>133</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4345,7 +4349,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4356,7 +4360,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4382,16 +4386,16 @@
         <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4401,7 +4405,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4416,13 +4420,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4440,7 +4444,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4458,7 +4462,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4469,7 +4473,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4492,19 +4496,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4514,7 +4518,7 @@
         <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>74</v>
@@ -4529,13 +4533,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4553,7 +4557,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4571,18 +4575,18 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4608,16 +4612,16 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4630,7 +4634,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4666,7 +4670,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4684,18 +4688,18 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4718,16 +4722,16 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4741,7 +4745,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4777,7 +4781,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4795,18 +4799,18 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4829,13 +4833,13 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4886,7 +4890,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4904,18 +4908,18 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4938,16 +4942,16 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4997,7 +5001,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5015,18 +5019,18 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5049,13 +5053,13 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5106,7 +5110,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5121,10 +5125,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5135,7 +5139,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5161,13 +5165,13 @@
         <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5217,7 +5221,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5232,10 +5236,10 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5246,11 +5250,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5269,13 +5273,13 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5326,7 +5330,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5341,10 +5345,10 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5355,11 +5359,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5378,16 +5382,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5437,7 +5441,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5452,10 +5456,10 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5466,7 +5470,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5492,13 +5496,13 @@
         <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5524,13 +5528,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5548,7 +5552,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>83</v>
@@ -5563,13 +5567,13 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5577,11 +5581,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5600,16 +5604,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5635,13 +5639,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5659,7 +5663,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5674,10 +5678,10 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5692,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5711,13 +5715,13 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5744,13 +5748,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5768,7 +5772,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5786,10 +5790,10 @@
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5797,11 +5801,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5820,17 +5824,17 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5855,13 +5859,13 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5879,7 +5883,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5894,25 +5898,25 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5931,13 +5935,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5988,7 +5992,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>83</v>
@@ -6003,21 +6007,21 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6040,16 +6044,16 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6099,7 +6103,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6114,21 +6118,21 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6151,16 +6155,16 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6210,7 +6214,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6225,21 +6229,21 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6262,13 +6266,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6319,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6337,10 +6341,10 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6348,7 +6352,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6371,13 +6375,13 @@
         <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6428,7 +6432,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6446,10 +6450,10 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6457,7 +6461,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6480,13 +6484,13 @@
         <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6537,7 +6541,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6552,10 +6556,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6566,7 +6570,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6589,13 +6593,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6646,7 +6650,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6664,7 +6668,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6675,7 +6679,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6701,10 +6705,10 @@
         <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>143</v>
@@ -6757,7 +6761,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6775,7 +6779,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6786,11 +6790,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6812,10 +6816,10 @@
         <v>129</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>143</v>
@@ -6870,7 +6874,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6899,7 +6903,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6922,17 +6926,17 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6957,13 +6961,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6981,7 +6985,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6996,21 +7000,21 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7033,17 +7037,17 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7092,7 +7096,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -7107,21 +7111,21 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7144,17 +7148,17 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7203,7 +7207,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7221,7 +7225,7 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7232,7 +7236,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7255,17 +7259,17 @@
         <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7314,7 +7318,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7332,10 +7336,10 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7343,7 +7347,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7366,16 +7370,16 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7401,13 +7405,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7425,7 +7429,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7440,13 +7444,13 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7454,7 +7458,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7477,16 +7481,16 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7536,7 +7540,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7551,13 +7555,13 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7565,7 +7569,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7588,16 +7592,16 @@
         <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7623,13 +7627,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7647,7 +7651,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7665,18 +7669,18 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7699,16 +7703,16 @@
         <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7734,13 +7738,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7758,7 +7762,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7780,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7787,7 +7791,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7810,16 +7814,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7869,7 +7873,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7887,7 +7891,7 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7898,7 +7902,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7921,16 +7925,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7956,13 +7960,13 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>74</v>
@@ -7980,7 +7984,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7998,7 +8002,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8009,7 +8013,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8032,17 +8036,17 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8091,7 +8095,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8109,7 +8113,7 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8120,7 +8124,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8143,13 +8147,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8176,13 +8180,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -8200,7 +8204,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8218,7 +8222,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8229,7 +8233,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8252,13 +8256,13 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8309,7 +8313,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8324,21 +8328,21 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8361,13 +8365,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8418,7 +8422,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8436,7 +8440,7 @@
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8447,7 +8451,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8470,13 +8474,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8527,7 +8531,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8545,7 +8549,7 @@
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8556,7 +8560,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8582,10 +8586,10 @@
         <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>143</v>
@@ -8638,7 +8642,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8656,7 +8660,7 @@
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8667,11 +8671,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8693,10 +8697,10 @@
         <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>143</v>
@@ -8751,7 +8755,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8780,7 +8784,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8803,13 +8807,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8839,10 +8843,10 @@
         <v>109</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>74</v>
@@ -8860,7 +8864,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8878,7 +8882,7 @@
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8889,7 +8893,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8912,13 +8916,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8969,7 +8973,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>83</v>
@@ -8987,7 +8991,7 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8998,7 +9002,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9021,19 +9025,19 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -9082,7 +9086,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9100,7 +9104,7 @@
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9111,7 +9115,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9134,16 +9138,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9169,13 +9173,13 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
@@ -9193,7 +9197,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9211,7 +9215,7 @@
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-cdm-procedure.xlsx
+++ b/StructureDefinition-cdm-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-procedure</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-procedure</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a procedure</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a procedure</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,7 +286,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -440,7 +436,7 @@
     <t>procedureModifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-modifier}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/procedure-modifier}
 </t>
   </si>
   <si>
@@ -594,7 +590,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -709,7 +705,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2012,13 +2008,13 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -2029,7 +2025,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2040,28 +2036,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2111,13 +2107,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -2140,7 +2136,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2151,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -2163,13 +2159,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2220,25 +2216,25 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2249,7 +2245,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2260,28 +2256,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2331,19 +2327,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -2360,7 +2356,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2371,7 +2367,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -2383,16 +2379,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2418,43 +2414,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2471,18 +2467,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2494,16 +2490,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2553,25 +2549,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2582,11 +2578,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2605,16 +2601,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2664,7 +2660,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2682,7 +2678,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2693,7 +2689,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2716,13 +2712,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2761,17 +2757,17 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2783,7 +2779,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2800,10 +2796,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2825,13 +2821,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2882,7 +2878,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2891,10 +2887,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2911,11 +2907,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2928,25 +2924,25 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2995,7 +2991,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3007,13 +3003,13 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -3024,7 +3020,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3032,7 +3028,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -3044,22 +3040,22 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -3096,19 +3092,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AB12" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3120,24 +3116,24 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3148,7 +3144,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -3160,13 +3156,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3217,25 +3213,25 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3246,11 +3242,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3269,16 +3265,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3316,19 +3312,19 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3340,13 +3336,13 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3357,7 +3353,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3368,31 +3364,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3417,60 +3413,60 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3481,31 +3477,31 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3530,58 +3526,58 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3589,34 +3585,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3629,72 +3625,72 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3702,31 +3698,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3740,72 +3736,72 @@
         <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3816,25 +3812,25 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3885,36 +3881,36 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3925,28 +3921,28 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3996,39 +3992,39 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -4038,31 +4034,31 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -4111,7 +4107,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4123,24 +4119,24 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4151,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4163,13 +4159,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4220,25 +4216,25 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4249,11 +4245,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4272,16 +4268,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4319,19 +4315,19 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4339,13 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4360,7 +4356,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4371,31 +4367,31 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4405,7 +4401,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4420,60 +4416,60 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4481,34 +4477,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4518,29 +4514,29 @@
         <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4557,36 +4553,36 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4597,31 +4593,31 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4634,72 +4630,72 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4710,28 +4706,28 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4745,72 +4741,72 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4821,25 +4817,25 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4890,36 +4886,36 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4930,28 +4926,28 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5001,36 +4997,36 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5050,16 +5046,16 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5110,7 +5106,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5122,13 +5118,13 @@
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5139,7 +5135,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5159,19 +5155,19 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5221,7 +5217,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5233,13 +5229,13 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5250,11 +5246,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5270,16 +5266,16 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5330,7 +5326,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5342,13 +5338,13 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5359,11 +5355,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5379,19 +5375,19 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5441,7 +5437,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5453,13 +5449,13 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5478,31 +5474,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5528,52 +5524,52 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5581,39 +5577,39 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5639,49 +5635,49 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5692,7 +5688,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5703,25 +5699,25 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5748,52 +5744,52 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5801,40 +5797,40 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5859,89 +5855,89 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5992,36 +5988,36 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6032,28 +6028,28 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6103,36 +6099,36 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6143,28 +6139,28 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6214,36 +6210,36 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6254,25 +6250,25 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6323,28 +6319,28 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6352,7 +6348,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6363,25 +6359,25 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6432,28 +6428,28 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6457,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6481,16 +6477,16 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6541,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6553,13 +6549,13 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6570,7 +6566,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6581,7 +6577,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6593,13 +6589,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6650,25 +6646,25 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6679,11 +6675,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6702,16 +6698,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6761,7 +6757,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6773,13 +6769,13 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6790,11 +6786,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6807,25 +6803,25 @@
         <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="M46" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6874,7 +6870,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6886,13 +6882,13 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6903,7 +6899,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6914,29 +6910,29 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6961,60 +6957,60 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7022,32 +7018,32 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7096,36 +7092,36 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7136,7 +7132,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -7148,17 +7144,17 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7207,25 +7203,25 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7236,7 +7232,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7247,29 +7243,29 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7318,28 +7314,28 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7347,7 +7343,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7367,19 +7363,19 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7405,14 +7401,14 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7441,16 +7437,16 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7458,7 +7454,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7478,19 +7474,19 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7540,7 +7536,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7552,16 +7548,16 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7569,7 +7565,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7589,19 +7585,19 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7627,14 +7623,14 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7651,7 +7647,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7663,24 +7659,24 @@
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7691,28 +7687,28 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7738,49 +7734,49 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7791,7 +7787,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7814,16 +7810,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7873,7 +7869,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7885,13 +7881,13 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7902,7 +7898,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7925,16 +7921,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7960,14 +7956,14 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7984,7 +7980,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7996,13 +7992,13 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8013,7 +8009,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8036,17 +8032,17 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8095,7 +8091,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8107,13 +8103,13 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8124,7 +8120,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8147,13 +8143,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8180,14 +8176,14 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8216,13 +8212,13 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8233,7 +8229,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8256,13 +8252,13 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8313,7 +8309,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8325,24 +8321,24 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8365,13 +8361,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8422,7 +8418,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8434,13 +8430,13 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8451,7 +8447,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8462,7 +8458,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8474,13 +8470,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8531,25 +8527,25 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8560,11 +8556,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8583,16 +8579,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8642,7 +8638,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8654,13 +8650,13 @@
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8671,11 +8667,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8688,25 +8684,25 @@
         <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8755,7 +8751,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8767,13 +8763,13 @@
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8784,7 +8780,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8795,7 +8791,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8807,13 +8803,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8840,49 +8836,49 @@
         <v>74</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8893,7 +8889,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8901,10 +8897,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8916,13 +8912,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8973,25 +8969,25 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -9002,7 +8998,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9025,19 +9021,19 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -9086,7 +9082,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9098,13 +9094,13 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9115,7 +9111,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9138,16 +9134,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9173,14 +9169,14 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9197,7 +9193,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9209,13 +9205,13 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
